--- a/Images/Data_Figures6-7-8.xlsx
+++ b/Images/Data_Figures6-7-8.xlsx
@@ -2,32 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luanamarrocco/Desktop/ULB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luanamarrocco/Desktop/ULB/Stage/BASIC/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06901B-B305-D74F-A55F-F7D6658E0768}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF95B50-5E2E-CF42-9DE1-986E676C879A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="25120" windowHeight="15940" xr2:uid="{B5929A42-A7EE-C54C-8528-569696CDEC41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$41:$B$55</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Feuil1!$B$41:$B$55</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -57,13 +51,13 @@
     <t># Users</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t># Transactions</t>
   </si>
   <si>
     <t>Balance of the account (Ether)</t>
+  </si>
+  <si>
+    <t>Memory Used (MB)</t>
   </si>
 </sst>
 </file>
@@ -76,6 +70,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,8 +148,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Size of the blockchain in each car</a:t>
+              <a:t>Size of the blockchain</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> for each node (AV)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -222,12 +222,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -329,17 +326,42 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="260745119"/>
-        <c:axId val="260802943"/>
+        <c:axId val="2062933576"/>
+        <c:axId val="2062946344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260745119"/>
+        <c:axId val="2062933576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -406,7 +428,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260802943"/>
+        <c:crossAx val="2062946344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -414,7 +436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260802943"/>
+        <c:axId val="2062946344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,6 +457,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -495,7 +547,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260745119"/>
+        <c:crossAx val="2062933576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -579,7 +631,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Memory used after 7 days</a:t>
+              <a:t>Memory Requirements after 7 days of operation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -623,7 +675,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Memory</c:v>
+            <c:v>Memory Used (MB)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -757,11 +809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261035231"/>
-        <c:axId val="260702895"/>
+        <c:axId val="2079054504"/>
+        <c:axId val="2063293896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261035231"/>
+        <c:axId val="2079054504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,12 +925,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260702895"/>
+        <c:crossAx val="2063293896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260702895"/>
+        <c:axId val="2063293896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1042,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261035231"/>
+        <c:crossAx val="2079054504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1003,7 +1055,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1114,8 +1166,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16655953313019464"/>
-          <c:y val="2.0574364989234911E-2"/>
+          <c:x val="0.166559533130195"/>
+          <c:y val="2.05743649892349E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1154,10 +1206,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13066501847602702"/>
-          <c:y val="0.15072910874751133"/>
-          <c:w val="0.84450547497308492"/>
-          <c:h val="0.71496485347650063"/>
+          <c:x val="0.13066501847602699"/>
+          <c:y val="0.150729108747511"/>
+          <c:w val="0.84450547497308504"/>
+          <c:h val="0.71496485347650096"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1313,11 +1365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="296610431"/>
-        <c:axId val="296612111"/>
+        <c:axId val="2078798952"/>
+        <c:axId val="2072661064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296610431"/>
+        <c:axId val="2078798952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1467,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296612111"/>
+        <c:crossAx val="2072661064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296612111"/>
+        <c:axId val="2072661064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1581,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296610431"/>
+        <c:crossAx val="2078798952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3389,7 +3441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3441,7 +3493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3642,11 +3694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF74C49C-542F-4641-B4AF-C98067AA1F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3705,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3750,10 +3802,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,5 +3931,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>